--- a/tables/orch14.tables.xlsx
+++ b/tables/orch14.tables.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharongreenblum/Documents/cage_data/FINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharongreenblum/Documents/GitHub/dros-adaptive-tracking/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF217B25-8C8F-0B40-8FCC-157C0073AE32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676A011-8F83-EE4C-8642-5B3212C85715}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14020" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="18920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sig_site_counts" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
     <sheet name="multi-ts sites" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="281">
   <si>
     <t>(non-cumulative across significance categories)</t>
   </si>
@@ -835,12 +836,42 @@
   </si>
   <si>
     <t>SNP count</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>All Markers</t>
+  </si>
+  <si>
+    <t>Segregating Markers</t>
+  </si>
+  <si>
+    <t>Filtered Markers</t>
+  </si>
+  <si>
+    <t>In(2L)t</t>
+  </si>
+  <si>
+    <t>In(2R)Ns</t>
+  </si>
+  <si>
+    <t>In(3R)C</t>
+  </si>
+  <si>
+    <t>In(3R)K</t>
+  </si>
+  <si>
+    <t>In(3R)Mo</t>
+  </si>
+  <si>
+    <t>In(3R)Payne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1239,7 +1270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1468,6 +1499,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1513,7 +1553,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1560,6 +1600,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1569,173 +1777,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2091,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2117,13 +2163,13 @@
       <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="7" t="s">
@@ -2132,18 +2178,18 @@
       <c r="H1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -2158,7 +2204,7 @@
       <c r="E2" s="11">
         <v>18</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="72" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -2175,7 +2221,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
+      <c r="A3" s="73"/>
       <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2234,7 @@
       <c r="E3" s="13">
         <v>2</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2249,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
+      <c r="A4" s="73"/>
       <c r="B4" s="12" t="s">
         <v>9</v>
       </c>
@@ -2216,7 +2262,7 @@
       <c r="E4" s="13">
         <v>4</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="73"/>
       <c r="H4" s="12" t="s">
         <v>9</v>
       </c>
@@ -2231,7 +2277,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="12" t="s">
         <v>10</v>
       </c>
@@ -2244,7 +2290,7 @@
       <c r="E5" s="13">
         <v>36</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="12" t="s">
         <v>10</v>
       </c>
@@ -2259,7 +2305,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2272,7 +2318,7 @@
       <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="14" t="s">
         <v>11</v>
       </c>
@@ -2287,7 +2333,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -2302,7 +2348,7 @@
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="72" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -2319,7 +2365,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="73"/>
       <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
@@ -2332,7 +2378,7 @@
       <c r="E8" s="13">
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="12" t="s">
         <v>8</v>
       </c>
@@ -2347,7 +2393,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="73"/>
       <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
@@ -2360,7 +2406,7 @@
       <c r="E9" s="13">
         <v>45</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="73"/>
       <c r="H9" s="12" t="s">
         <v>9</v>
       </c>
@@ -2375,7 +2421,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="73"/>
       <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
@@ -2388,7 +2434,7 @@
       <c r="E10" s="13">
         <v>1</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="12" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2449,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
@@ -2416,7 +2462,7 @@
       <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="74"/>
       <c r="H11" s="14" t="s">
         <v>11</v>
       </c>
@@ -2431,7 +2477,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="72" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2446,7 +2492,7 @@
       <c r="E12" s="11">
         <v>48</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="72" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="10" t="s">
@@ -2463,7 +2509,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2476,7 +2522,7 @@
       <c r="E13" s="13">
         <v>36</v>
       </c>
-      <c r="G13" s="17"/>
+      <c r="G13" s="73"/>
       <c r="H13" s="12" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2537,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2504,7 +2550,7 @@
       <c r="E14" s="13">
         <v>442</v>
       </c>
-      <c r="G14" s="17"/>
+      <c r="G14" s="73"/>
       <c r="H14" s="12" t="s">
         <v>9</v>
       </c>
@@ -2519,7 +2565,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2532,7 +2578,7 @@
       <c r="E15" s="13">
         <v>247</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="73"/>
       <c r="H15" s="12" t="s">
         <v>10</v>
       </c>
@@ -2547,7 +2593,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="14" t="s">
         <v>11</v>
       </c>
@@ -2560,7 +2606,7 @@
       <c r="E16" s="15">
         <v>32</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="74"/>
       <c r="H16" s="14" t="s">
         <v>11</v>
       </c>
@@ -2575,7 +2621,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="72" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
@@ -2590,7 +2636,7 @@
       <c r="E17" s="11">
         <v>72</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="72" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -2607,7 +2653,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
+      <c r="A18" s="73"/>
       <c r="B18" s="12" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2666,7 @@
       <c r="E18" s="13">
         <v>44</v>
       </c>
-      <c r="G18" s="17"/>
+      <c r="G18" s="73"/>
       <c r="H18" s="12" t="s">
         <v>8</v>
       </c>
@@ -2635,7 +2681,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
+      <c r="A19" s="73"/>
       <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
@@ -2648,7 +2694,7 @@
       <c r="E19" s="13">
         <v>25</v>
       </c>
-      <c r="G19" s="17"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="12" t="s">
         <v>9</v>
       </c>
@@ -2663,7 +2709,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="73"/>
       <c r="B20" s="12" t="s">
         <v>10</v>
       </c>
@@ -2676,7 +2722,7 @@
       <c r="E20" s="13">
         <v>218</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="73"/>
       <c r="H20" s="12" t="s">
         <v>10</v>
       </c>
@@ -2691,7 +2737,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="14" t="s">
         <v>11</v>
       </c>
@@ -2704,7 +2750,7 @@
       <c r="E21" s="15">
         <v>11</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="74"/>
       <c r="H21" s="14" t="s">
         <v>11</v>
       </c>
@@ -2719,7 +2765,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="72" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
@@ -2734,7 +2780,7 @@
       <c r="E22" s="11">
         <v>528</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="72" t="s">
         <v>15</v>
       </c>
       <c r="H22" s="10" t="s">
@@ -2751,7 +2797,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
+      <c r="A23" s="73"/>
       <c r="B23" s="12" t="s">
         <v>8</v>
       </c>
@@ -2764,7 +2810,7 @@
       <c r="E23" s="13">
         <v>446</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="73"/>
       <c r="H23" s="12" t="s">
         <v>8</v>
       </c>
@@ -2779,7 +2825,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
+      <c r="A24" s="73"/>
       <c r="B24" s="12" t="s">
         <v>9</v>
       </c>
@@ -2792,7 +2838,7 @@
       <c r="E24" s="13">
         <v>526</v>
       </c>
-      <c r="G24" s="17"/>
+      <c r="G24" s="73"/>
       <c r="H24" s="12" t="s">
         <v>9</v>
       </c>
@@ -2807,7 +2853,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
+      <c r="A25" s="73"/>
       <c r="B25" s="12" t="s">
         <v>10</v>
       </c>
@@ -2820,7 +2866,7 @@
       <c r="E25" s="13">
         <v>551</v>
       </c>
-      <c r="G25" s="17"/>
+      <c r="G25" s="73"/>
       <c r="H25" s="12" t="s">
         <v>10</v>
       </c>
@@ -2835,7 +2881,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="74"/>
       <c r="B26" s="14" t="s">
         <v>11</v>
       </c>
@@ -2848,7 +2894,7 @@
       <c r="E26" s="15">
         <v>211</v>
       </c>
-      <c r="G26" s="18"/>
+      <c r="G26" s="74"/>
       <c r="H26" s="14" t="s">
         <v>11</v>
       </c>
@@ -2864,1992 +2910,141 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
+    <mergeCell ref="G22:G26"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
-    <mergeCell ref="G22:G26"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AE3EBB-689F-5549-B900-49CB5155DD98}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" style="73" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" style="73" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="73"/>
-    <col min="5" max="5" width="31.83203125" style="73" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="74"/>
-    <col min="7" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="20" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="76" t="s">
+        <v>272</v>
+      </c>
+      <c r="C1" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="75">
+        <v>16</v>
+      </c>
+      <c r="C2" s="75">
+        <v>16</v>
+      </c>
+      <c r="D2" s="75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" s="75">
+        <v>67</v>
+      </c>
+      <c r="C3" s="75">
+        <v>22</v>
+      </c>
+      <c r="D3" s="75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="75" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="75">
+        <v>144</v>
+      </c>
+      <c r="C4" s="75">
+        <v>10</v>
+      </c>
+      <c r="D4" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="B5" s="75">
+        <v>4</v>
+      </c>
+      <c r="C5" s="75">
+        <v>1</v>
+      </c>
+      <c r="D5" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="75">
+        <v>150</v>
+      </c>
+      <c r="C6" s="75">
+        <v>73</v>
+      </c>
+      <c r="D6" s="75">
         <v>64</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C13" s="32" t="s">
-        <v>259</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" s="31" t="s">
-        <v>206</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>207</v>
-      </c>
-      <c r="C26" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>216</v>
-      </c>
-      <c r="C27" s="32" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="31" t="s">
-        <v>229</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="C29" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="42">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A35" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>210</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>211</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
-        <v>223</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>224</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>225</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
-        <v>171</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>172</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>245</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>252</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>267</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="40" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="40" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>160</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A55" s="40" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A56" s="40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="C57" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="D57" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="48">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="D59" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A60" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E60" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="49" t="s">
-        <v>260</v>
-      </c>
-      <c r="B61" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="D61" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E61" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A62" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B62" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E62" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F62" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="B63" s="50" t="s">
-        <v>199</v>
-      </c>
-      <c r="C63" s="50" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E63" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F63" s="51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="49" t="s">
-        <v>120</v>
-      </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D66" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="49" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="50" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A68" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="F68" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B69" s="56"/>
-      <c r="C69" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="F69" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D70" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E70" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F70" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B71" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>188</v>
-      </c>
-      <c r="D71" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F71" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="58" t="s">
-        <v>189</v>
-      </c>
-      <c r="B72" s="59" t="s">
-        <v>190</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>191</v>
-      </c>
-      <c r="D72" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="E72" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="F72" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A73" s="61" t="s">
-        <v>201</v>
-      </c>
-      <c r="B73" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="D73" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F73" s="63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="64" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="65" t="s">
-        <v>111</v>
-      </c>
-      <c r="D74" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="66">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A75" s="67" t="s">
-        <v>180</v>
-      </c>
-      <c r="B75" s="68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F75" s="69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A76" s="67" t="s">
-        <v>241</v>
-      </c>
-      <c r="B76" s="68" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F76" s="69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A77" s="67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68" t="s">
-        <v>119</v>
-      </c>
-      <c r="D77" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F77" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="67" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" s="68" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F78" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B79" s="68" t="s">
-        <v>36</v>
-      </c>
-      <c r="C79" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D79" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E79" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F79" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="67" t="s">
-        <v>58</v>
-      </c>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E80" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F80" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="D81" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E81" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A82" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F82" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="D83" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E83" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F83" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F84" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A85" s="67" t="s">
-        <v>80</v>
-      </c>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E85" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="67" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="D86" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E86" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F86" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A87" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68" t="s">
-        <v>93</v>
-      </c>
-      <c r="D87" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="D88" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F88" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68" t="s">
-        <v>99</v>
-      </c>
-      <c r="D89" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E89" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F89" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D90" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E90" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F90" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D91" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E91" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F91" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="D92" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E92" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F92" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E93" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A94" s="67" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" s="68"/>
-      <c r="C94" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D94" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E94" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F94" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="B95" s="68" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="68" t="s">
-        <v>158</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A96" s="67" t="s">
-        <v>171</v>
-      </c>
-      <c r="B96" s="68" t="s">
-        <v>172</v>
-      </c>
-      <c r="C96" s="68" t="s">
-        <v>173</v>
-      </c>
-      <c r="D96" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E96" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="67" t="s">
-        <v>177</v>
-      </c>
-      <c r="B97" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C97" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="D97" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E97" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A98" s="67" t="s">
-        <v>192</v>
-      </c>
-      <c r="B98" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="C98" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="D98" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E98" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A99" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="B99" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="C99" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="D99" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E99" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F99" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A100" s="67" t="s">
-        <v>227</v>
-      </c>
-      <c r="B100" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="C100" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="D100" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E100" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F100" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A101" s="67" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="C101" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="D101" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="E101" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A102" s="70" t="s">
-        <v>262</v>
-      </c>
-      <c r="B102" s="71" t="s">
-        <v>263</v>
-      </c>
-      <c r="C102" s="71" t="s">
-        <v>264</v>
-      </c>
-      <c r="D102" s="71" t="s">
-        <v>21</v>
-      </c>
-      <c r="E102" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="F102" s="72">
-        <v>1</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="75">
+        <v>19</v>
+      </c>
+      <c r="C7" s="75">
+        <v>12</v>
+      </c>
+      <c r="D7" s="75">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F104">
-    <sortCondition ref="D2:D104"/>
-    <sortCondition ref="E2:E104"/>
-    <sortCondition descending="1" ref="F2:F104"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5026,4 +3221,1973 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F102"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" style="70" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="70" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="70"/>
+    <col min="5" max="5" width="31.83203125" style="70" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="71"/>
+    <col min="7" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>256</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>225</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C44" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="38"/>
+      <c r="C50" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A55" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D60" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E60" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>261</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F61" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F64" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F65" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="D66" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F66" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="B68" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="C68" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D68" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D70" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="58" t="s">
+        <v>201</v>
+      </c>
+      <c r="B73" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="C73" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A75" s="64" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F75" s="66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="64" t="s">
+        <v>241</v>
+      </c>
+      <c r="B76" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="C76" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F76" s="66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F77" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B79" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C79" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F79" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E80" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E81" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F81" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E83" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F84" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F85" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="D86" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E86" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="D87" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F87" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F88" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E89" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F89" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D91" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E91" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F91" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D92" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F92" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="D93" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E93" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F93" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="64" t="s">
+        <v>152</v>
+      </c>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D94" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F94" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" s="65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="65" t="s">
+        <v>158</v>
+      </c>
+      <c r="D95" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E95" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="64" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E96" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A97" s="64" t="s">
+        <v>177</v>
+      </c>
+      <c r="B97" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F97" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="64" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="D98" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E98" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="D99" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F99" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B100" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="C100" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="D100" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E100" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="64" t="s">
+        <v>235</v>
+      </c>
+      <c r="B101" s="65" t="s">
+        <v>236</v>
+      </c>
+      <c r="C101" s="65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D101" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="E101" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F101" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="67" t="s">
+        <v>262</v>
+      </c>
+      <c r="B102" s="68" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="68" t="s">
+        <v>264</v>
+      </c>
+      <c r="D102" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="68" t="s">
+        <v>24</v>
+      </c>
+      <c r="F102" s="69">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F104">
+    <sortCondition ref="D2:D104"/>
+    <sortCondition ref="E2:E104"/>
+    <sortCondition descending="1" ref="F2:F104"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>